--- a/decastro_r_assn04.xlsx
+++ b/decastro_r_assn04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kel/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BEE9BF-CB91-484E-8209-567A6E2FBCCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0607933-037E-104F-BC53-A36C8AB6C1A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Query</t>
   </si>
@@ -61,6 +61,27 @@
   </si>
   <si>
     <t>plus/plus</t>
+  </si>
+  <si>
+    <t>379,236 total</t>
+  </si>
+  <si>
+    <t>plus/minus</t>
+  </si>
+  <si>
+    <t>Nucleotide collection (nt)</t>
+  </si>
+  <si>
+    <t>lus/Minus</t>
+  </si>
+  <si>
+    <t>watermelon_genes.fasta</t>
+  </si>
+  <si>
+    <t> watermelon_mt</t>
+  </si>
+  <si>
+    <t>plant_mt</t>
   </si>
 </sst>
 </file>
@@ -230,24 +251,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -629,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I11"/>
+  <dimension ref="A3:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +661,7 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -649,34 +670,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
@@ -692,7 +713,7 @@
     </row>
     <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
@@ -705,10 +726,10 @@
         <v>303</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="15">
+      <c r="G5" s="10">
         <v>560</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="11">
         <v>9.9999999999999996E-165</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -717,7 +738,7 @@
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>2</v>
@@ -725,15 +746,17 @@
       <c r="C6" s="5">
         <v>303</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="17">
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12">
         <v>38948</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="15">
+      <c r="G6" s="10">
         <v>560</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="11">
         <v>1.9999999999999999E-162</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -742,52 +765,88 @@
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="10">
+        <v>303</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="9"/>
+      <c r="G7" s="10">
+        <v>560</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2.0000000000000001E-161</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="10">
+        <v>303</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="12">
+        <v>11638289</v>
+      </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
+      <c r="G8" s="10">
+        <v>560</v>
+      </c>
+      <c r="H8" s="11">
+        <v>5.9999999999999999E-160</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="10">
+        <v>303</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="12">
+        <v>204700810597</v>
+      </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
+      <c r="G9" s="10">
+        <v>560</v>
+      </c>
+      <c r="H9" s="11">
+        <v>8.9999999999999997E-156</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>2</v>
@@ -802,7 +861,7 @@
     </row>
     <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>2</v>
@@ -814,6 +873,21 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
       <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G8">

--- a/decastro_r_assn04.xlsx
+++ b/decastro_r_assn04.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kel/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0607933-037E-104F-BC53-A36C8AB6C1A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83251BC8-10D8-494B-9F7F-78E9FEC9A084}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Query</t>
   </si>
@@ -82,6 +88,15 @@
   </si>
   <si>
     <t>plant_mt</t>
+  </si>
+  <si>
+    <t>watermelon_mt</t>
+  </si>
+  <si>
+    <t>3/-3</t>
+  </si>
+  <si>
+    <t>Plus/Plus</t>
   </si>
 </sst>
 </file>
@@ -650,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I12"/>
+  <dimension ref="A3:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,15 +866,27 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="10">
+        <v>303</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="12">
+        <v>379236</v>
+      </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="G10" s="10">
+        <v>254</v>
+      </c>
+      <c r="H10" s="11">
+        <v>4E-70</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -881,13 +908,65 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="10">
+        <v>379236</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="12">
+        <v>379236</v>
+      </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
+      <c r="G12" s="11">
+        <v>700300</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="10">
+        <v>379236</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="12">
+        <v>379236</v>
+      </c>
+      <c r="G13" s="11">
+        <v>683900</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="10">
+        <v>379236</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="12">
+        <v>379236</v>
+      </c>
+      <c r="G14" s="11">
+        <v>399400</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G8">
